--- a/data/categories.xlsx
+++ b/data/categories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robsc\Documents\Python\Huishoudboekje\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robsc\Documents\Projecten\huishoudboekje\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B557916-77D8-4017-BB7B-FD772209D1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CCE9CB-D034-4626-AABB-F72BF1DD28F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E49F5A81-8AF6-4DB3-810D-353E90200514}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E49F5A81-8AF6-4DB3-810D-353E90200514}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="103">
   <si>
     <t>Parkeren</t>
   </si>
@@ -307,6 +307,33 @@
   </si>
   <si>
     <t>Baby en zwangerschap</t>
+  </si>
+  <si>
+    <t>Aankoop auto</t>
+  </si>
+  <si>
+    <t>Abonnementen</t>
+  </si>
+  <si>
+    <t>Kinderbijslag</t>
+  </si>
+  <si>
+    <t>Kinderopvangtoeslag</t>
+  </si>
+  <si>
+    <t>Restaurant, café, thuisbezorgd</t>
+  </si>
+  <si>
+    <t>Kinderopvang</t>
+  </si>
+  <si>
+    <t>Hobby, speelgoed en sport</t>
+  </si>
+  <si>
+    <t>Baby artikelen</t>
+  </si>
+  <si>
+    <t>Spaarrekening kind</t>
   </si>
 </sst>
 </file>
@@ -361,7 +388,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -377,7 +404,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -673,19 +700,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6FA701-2C4D-4D14-A76A-4058C7875F63}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -701,13 +728,16 @@
       <c r="E1" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -718,13 +748,16 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -735,47 +768,56 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -786,101 +828,119 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -888,16 +948,19 @@
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -905,16 +968,19 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -922,61 +988,73 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>63</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
@@ -990,10 +1068,13 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
         <v>69</v>
@@ -1005,12 +1086,15 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
         <v>69</v>
@@ -1024,13 +1108,16 @@
       <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1041,13 +1128,16 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1056,15 +1146,18 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1075,30 +1168,36 @@
       <c r="E23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1107,437 +1206,515 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>5</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B47" t="s">
         <v>71</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>6</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B48" t="s">
         <v>71</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>86</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B49" t="s">
         <v>71</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>7</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B50" t="s">
         <v>71</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>28</v>
       </c>
       <c r="B51" t="s">
         <v>71</v>
@@ -1549,12 +1726,15 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
         <v>71</v>
@@ -1568,10 +1748,13 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53" t="s">
         <v>71</v>
@@ -1585,10 +1768,13 @@
       <c r="E53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
         <v>71</v>
@@ -1602,10 +1788,13 @@
       <c r="E54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
         <v>71</v>
@@ -1619,10 +1808,13 @@
       <c r="E55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
         <v>71</v>
@@ -1636,10 +1828,13 @@
       <c r="E56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B57" t="s">
         <v>71</v>
@@ -1651,12 +1846,15 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B58" t="s">
         <v>71</v>
@@ -1670,184 +1868,217 @@
       <c r="E58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="B59" t="s">
         <v>71</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>36</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B65" t="s">
         <v>74</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>37</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B66" t="s">
         <v>74</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>38</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B67" t="s">
         <v>74</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>39</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B68" t="s">
         <v>74</v>
       </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>40</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B69" t="s">
         <v>74</v>
       </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>42</v>
-      </c>
-      <c r="B66" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>43</v>
-      </c>
-      <c r="B67" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>44</v>
-      </c>
-      <c r="B68" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>45</v>
-      </c>
-      <c r="B69" t="s">
-        <v>75</v>
-      </c>
       <c r="C69">
         <v>1</v>
       </c>
@@ -1855,69 +2086,81 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -1925,67 +2168,79 @@
       <c r="E73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -1993,47 +2248,56 @@
       <c r="E77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B78" t="s">
         <v>68</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2044,13 +2308,16 @@
       <c r="E80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2061,59 +2328,254 @@
       <c r="E81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" t="s">
+        <v>70</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>70</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>50</v>
+      </c>
+      <c r="B91" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>52</v>
+      </c>
+      <c r="B93" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F93">
+    <sortCondition ref="B2:B93"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/categories.xlsx
+++ b/data/categories.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robsc\Documents\Projecten\huishoudboekje\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CCE9CB-D034-4626-AABB-F72BF1DD28F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873FB17F-0140-463C-8899-4EAD4C939C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E49F5A81-8AF6-4DB3-810D-353E90200514}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="104">
   <si>
     <t>Parkeren</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>Spaarrekening kind</t>
+  </si>
+  <si>
+    <t>Woonlasten</t>
   </si>
 </sst>
 </file>
@@ -700,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6FA701-2C4D-4D14-A76A-4058C7875F63}">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2469,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -2489,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -2509,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -2529,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -2549,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -2569,6 +2572,126 @@
         <v>1</v>
       </c>
       <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>48</v>
+      </c>
+      <c r="B95" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>49</v>
+      </c>
+      <c r="B96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>51</v>
+      </c>
+      <c r="B98" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>52</v>
+      </c>
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
         <v>1</v>
       </c>
     </row>
